--- a/Pénzügyi kimutatások/2024 Február pénzügyi kimutatás.xlsx
+++ b/Pénzügyi kimutatások/2024 Február pénzügyi kimutatás.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Magán\Pénzügyi kimutatások\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2A7315-F867-41F6-A944-C0F2F08217D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481A4FF6-BE16-4BCE-BD20-2171B3D05F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A03C8F66-D054-4920-B671-344E3F83C18D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Megnevezések</t>
   </si>
@@ -69,6 +69,18 @@
   </si>
   <si>
     <t>Február 05.-09.</t>
+  </si>
+  <si>
+    <t>büfé</t>
+  </si>
+  <si>
+    <t>Árkád bevásárlás</t>
+  </si>
+  <si>
+    <t>POCO</t>
+  </si>
+  <si>
+    <t>Global bérlet</t>
   </si>
 </sst>
 </file>
@@ -309,9 +321,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022 téma">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -349,7 +361,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -455,7 +467,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -597,7 +609,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -607,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B725FF06-8AE1-41D2-8BDD-01332C3A8CDC}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -650,9 +662,11 @@
       <c r="D3" s="7"/>
       <c r="E3" s="8">
         <f>SUM(C5:C9)</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="9"/>
+        <v>26101</v>
+      </c>
+      <c r="F3" s="9">
+        <v>39101</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
@@ -660,7 +674,7 @@
       </c>
       <c r="D4" s="11">
         <f>F3-E3</f>
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -669,9 +683,15 @@
       <c r="A5" s="13">
         <v>45327</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="12"/>
+      <c r="B5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="15">
+        <v>1480</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1500</v>
+      </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
     </row>
@@ -679,9 +699,15 @@
       <c r="A6" s="13">
         <v>45328</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="12"/>
+      <c r="B6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="15">
+        <v>2481</v>
+      </c>
+      <c r="D6" s="12">
+        <v>12500</v>
+      </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
     </row>
@@ -689,8 +715,12 @@
       <c r="A7" s="13">
         <v>45329</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
+      <c r="B7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="15">
+        <v>6500</v>
+      </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -699,8 +729,12 @@
       <c r="A8" s="13">
         <v>45330</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
+      <c r="B8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="15">
+        <v>14000</v>
+      </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
@@ -709,11 +743,17 @@
       <c r="A9" s="13">
         <v>45331</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
+      <c r="B9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="15">
+        <v>1640</v>
+      </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="9"/>
+      <c r="F9" s="9">
+        <v>9700</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D10" s="12"/>
@@ -729,7 +769,7 @@
       </c>
       <c r="D11" s="11">
         <f>F9-E10</f>
-        <v>0</v>
+        <v>9700</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>

--- a/Pénzügyi kimutatások/2024 Február pénzügyi kimutatás.xlsx
+++ b/Pénzügyi kimutatások/2024 Február pénzügyi kimutatás.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Magán\Pénzügyi kimutatások\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2A7315-F867-41F6-A944-C0F2F08217D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F72D98-17B2-4ED8-A2ED-57693944C259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A03C8F66-D054-4920-B671-344E3F83C18D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Megnevezések</t>
   </si>
@@ -69,6 +69,30 @@
   </si>
   <si>
     <t>Február 05.-09.</t>
+  </si>
+  <si>
+    <t>büfé</t>
+  </si>
+  <si>
+    <t>Árkád bevásárlás</t>
+  </si>
+  <si>
+    <t>POCO</t>
+  </si>
+  <si>
+    <t>Global bérlet</t>
+  </si>
+  <si>
+    <t>Spár (kártyás)</t>
+  </si>
+  <si>
+    <t>Hambi</t>
+  </si>
+  <si>
+    <t>Krumplistészta</t>
+  </si>
+  <si>
+    <t>Hambi kóla</t>
   </si>
 </sst>
 </file>
@@ -309,9 +333,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022 téma">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -349,7 +373,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -455,7 +479,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -597,7 +621,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -607,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B725FF06-8AE1-41D2-8BDD-01332C3A8CDC}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -650,9 +674,11 @@
       <c r="D3" s="7"/>
       <c r="E3" s="8">
         <f>SUM(C5:C9)</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="9"/>
+        <v>26101</v>
+      </c>
+      <c r="F3" s="9">
+        <v>39101</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
@@ -660,7 +686,7 @@
       </c>
       <c r="D4" s="11">
         <f>F3-E3</f>
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -669,9 +695,15 @@
       <c r="A5" s="13">
         <v>45327</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="12"/>
+      <c r="B5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="15">
+        <v>1480</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1500</v>
+      </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
     </row>
@@ -679,9 +711,15 @@
       <c r="A6" s="13">
         <v>45328</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="12"/>
+      <c r="B6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="15">
+        <v>2481</v>
+      </c>
+      <c r="D6" s="12">
+        <v>12500</v>
+      </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
     </row>
@@ -689,8 +727,12 @@
       <c r="A7" s="13">
         <v>45329</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
+      <c r="B7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="15">
+        <v>6500</v>
+      </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -699,8 +741,12 @@
       <c r="A8" s="13">
         <v>45330</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
+      <c r="B8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="15">
+        <v>14000</v>
+      </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
@@ -709,17 +755,23 @@
       <c r="A9" s="13">
         <v>45331</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
+      <c r="B9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="15">
+        <v>1640</v>
+      </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="9"/>
+      <c r="F9" s="9">
+        <v>21700</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D10" s="12"/>
       <c r="E10" s="16">
         <f>SUM(C12:C16)</f>
-        <v>0</v>
+        <v>4100</v>
       </c>
       <c r="F10" s="12"/>
     </row>
@@ -729,7 +781,7 @@
       </c>
       <c r="D11" s="11">
         <f>F9-E10</f>
-        <v>0</v>
+        <v>17600</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -738,8 +790,12 @@
       <c r="A12" s="17">
         <v>45334</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
+      <c r="B12" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="19">
+        <v>1630</v>
+      </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -748,8 +804,12 @@
       <c r="A13" s="17">
         <v>45335</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
+      <c r="B13" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="19">
+        <v>790</v>
+      </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -758,8 +818,12 @@
       <c r="A14" s="17">
         <v>45336</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
+      <c r="B14" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="19">
+        <v>890</v>
+      </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -768,8 +832,12 @@
       <c r="A15" s="17">
         <v>45337</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
+      <c r="B15" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="19">
+        <v>790</v>
+      </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -789,7 +857,9 @@
       <c r="C17" s="20"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="9"/>
+      <c r="F17" s="9">
+        <v>4270</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B18" s="7"/>
@@ -797,7 +867,7 @@
       <c r="D18" s="12"/>
       <c r="E18" s="16">
         <f>SUM(C20:C24)</f>
-        <v>0</v>
+        <v>5240</v>
       </c>
       <c r="F18" s="12"/>
     </row>
@@ -809,7 +879,7 @@
       <c r="C19" s="20"/>
       <c r="D19" s="11">
         <f>F17-E18</f>
-        <v>0</v>
+        <v>-970</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -818,9 +888,13 @@
       <c r="A20" s="17">
         <v>45341</v>
       </c>
-      <c r="B20" s="18"/>
+      <c r="B20" s="18" t="s">
+        <v>15</v>
+      </c>
       <c r="C20" s="21"/>
-      <c r="D20" s="12"/>
+      <c r="D20" s="12">
+        <v>3800</v>
+      </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
     </row>
@@ -828,8 +902,12 @@
       <c r="A21" s="17">
         <v>45342</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="21"/>
+      <c r="B21" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="21">
+        <v>800</v>
+      </c>
       <c r="D21" s="22"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -838,8 +916,12 @@
       <c r="A22" s="17">
         <v>45343</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="21"/>
+      <c r="B22" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="21">
+        <v>700</v>
+      </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
@@ -848,8 +930,12 @@
       <c r="A23" s="17">
         <v>45344</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="21"/>
+      <c r="B23" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="21">
+        <v>2100</v>
+      </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -858,8 +944,12 @@
       <c r="A24" s="17">
         <v>45345</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="21"/>
+      <c r="B24" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="21">
+        <v>1640</v>
+      </c>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
@@ -869,7 +959,9 @@
       <c r="C25" s="20"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
-      <c r="F25" s="9"/>
+      <c r="F25" s="9">
+        <v>3700</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B26" s="7"/>
@@ -889,7 +981,7 @@
       <c r="C27" s="20"/>
       <c r="D27" s="11">
         <f>F25-E26</f>
-        <v>0</v>
+        <v>3700</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
